--- a/fWP.xlsx
+++ b/fWP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>имя функции</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>Подключение частей PHP кода</t>
+  </si>
+  <si>
+    <t>видео</t>
   </si>
 </sst>
 </file>
@@ -367,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -379,20 +382,26 @@
     <col min="2" max="2" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/fWP.xlsx
+++ b/fWP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>имя функции</t>
   </si>
@@ -31,6 +31,48 @@
   </si>
   <si>
     <t>видео</t>
+  </si>
+  <si>
+    <t>wp_enqueue_scripts</t>
+  </si>
+  <si>
+    <t>Подключение скриптов</t>
+  </si>
+  <si>
+    <t>Подключение стилей</t>
+  </si>
+  <si>
+    <t>wp_enqueue_style</t>
+  </si>
+  <si>
+    <t>add_action</t>
+  </si>
+  <si>
+    <t>хук</t>
+  </si>
+  <si>
+    <t>get_template_directory_uri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">путь от текушего корня </t>
+  </si>
+  <si>
+    <t>wp_register_style()</t>
+  </si>
+  <si>
+    <t>регистрация стилей</t>
+  </si>
+  <si>
+    <t>wp_register_scripts</t>
+  </si>
+  <si>
+    <t>реегистрация скриптов</t>
+  </si>
+  <si>
+    <t>is_singular()</t>
+  </si>
+  <si>
+    <t>true если на активной странице</t>
   </si>
 </sst>
 </file>
@@ -67,8 +109,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -370,41 +421,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:C9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/fWP.xlsx
+++ b/fWP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>имя функции</t>
   </si>
@@ -73,6 +73,24 @@
   </si>
   <si>
     <t>true если на активной странице</t>
+  </si>
+  <si>
+    <t>get_stylesheet_uri</t>
+  </si>
+  <si>
+    <t>генерир путь до основного style.css</t>
+  </si>
+  <si>
+    <t>wp_head()</t>
+  </si>
+  <si>
+    <t>wp_footer()</t>
+  </si>
+  <si>
+    <t>подкл стили в шапку вместо linck</t>
+  </si>
+  <si>
+    <t>подкл скрипты в футер</t>
   </si>
 </sst>
 </file>
@@ -421,16 +439,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -521,9 +539,39 @@
       </c>
       <c r="C9" s="3"/>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C3:C9"/>
+  <mergeCells count="2">
+    <mergeCell ref="C3:C10"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/fWP.xlsx
+++ b/fWP.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>имя функции</t>
   </si>
@@ -87,10 +87,46 @@
     <t>wp_footer()</t>
   </si>
   <si>
-    <t>подкл стили в шапку вместо linck</t>
-  </si>
-  <si>
     <t>подкл скрипты в футер</t>
+  </si>
+  <si>
+    <t>подкл стили в шапку вместо link</t>
+  </si>
+  <si>
+    <t>wp_body_open</t>
+  </si>
+  <si>
+    <t>Запускает действие wp_body_open</t>
+  </si>
+  <si>
+    <t>body_class()</t>
+  </si>
+  <si>
+    <t>подкл классы для разных страниц</t>
+  </si>
+  <si>
+    <t>language_attributes()</t>
+  </si>
+  <si>
+    <t>язык как в админке</t>
+  </si>
+  <si>
+    <t>register_nav_menus(array())</t>
+  </si>
+  <si>
+    <t>регестрирует нав меню в админке.</t>
+  </si>
+  <si>
+    <t>after_setup_theme</t>
+  </si>
+  <si>
+    <t>экшн на который цепляеться хук</t>
+  </si>
+  <si>
+    <t>wp_nav_menu();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">выводит зарегестрир нав меню на страницу </t>
   </si>
 </sst>
 </file>
@@ -439,16 +475,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -553,7 +589,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3">
         <v>6</v>
@@ -564,14 +600,71 @@
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="3"/>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C3:C10"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="C16:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
